--- a/VELA01 bulge summary.xlsx
+++ b/VELA01 bulge summary.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="0" windowWidth="30920" windowHeight="20600" tabRatio="500"/>
+    <workbookView xWindow="2780" yWindow="540" windowWidth="33380" windowHeight="17580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$Q$259</definedName>
@@ -27,7 +28,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="galfit_result_summary.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:imtibbet:newSim:VELA01:F160W:galfit_result_summary.txt" tab="0" comma="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:imtibbet:newSim:VELA01:F160W:galfit_result_summary.txt" tab="0" comma="1">
       <textFields count="12">
         <textField/>
         <textField/>
@@ -45,7 +46,7 @@
     </textPr>
   </connection>
   <connection id="2" name="galfit_result_summary.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:imtibbet:newSim:VELA01:F160W:galfit_result_summary.txt" tab="0" comma="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:imtibbet:newSim:VELA01:F160W:galfit_result_summary.txt" tab="0" comma="1">
       <textFields count="16">
         <textField/>
         <textField/>
@@ -204,10 +205,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -465,11 +466,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2145887112"/>
-        <c:axId val="2145888584"/>
+        <c:axId val="2110411800"/>
+        <c:axId val="2110414760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2145887112"/>
+        <c:axId val="2110411800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -479,12 +480,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145888584"/>
+        <c:crossAx val="2110414760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2145888584"/>
+        <c:axId val="2110414760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -494,7 +495,761 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145887112"/>
+        <c:crossAx val="2110411800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cam7</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Disk</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0813217410323709"/>
+          <c:y val="0.225"/>
+          <c:w val="0.876844925634296"/>
+          <c:h val="0.67154345290172"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$199:$D$219</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.842</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.124</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.268</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.413</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.709</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.316</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.471</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.259</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.419</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$199:$L$219</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.3399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6729</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3193</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.467</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5282</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2154</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4449</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2914</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8662</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.787</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7684</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6213</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.3732</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.3541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2137028264"/>
+        <c:axId val="2137486248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2137028264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137486248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2137486248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137028264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cam8</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> bulge</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$220:$D$239</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.568</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.704</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.842</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.982</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.268</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.413</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.709</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.316</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.471</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.259</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.419</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$220:$L$239</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.8943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9061</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9382</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3345</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1266</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3325</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6977</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8314</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3132</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4532</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4896</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7246</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9693</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1218</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6362</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0182</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2129733864"/>
+        <c:axId val="2129881736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2129733864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2129881736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2129881736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2129733864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cam8</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> disk</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$240:$D$259</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.568</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.704</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.842</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.982</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.268</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.413</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.709</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.316</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.471</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.259</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.419</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$240:$L$259</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.5526</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1767</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5729</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2465</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6505</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8589</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.469</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2712</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4838</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8471</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8833</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8394</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6039</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4068</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2173</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2138332872"/>
+        <c:axId val="2130515176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2138332872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2130515176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2130515176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2138332872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -742,11 +1497,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2147292792"/>
-        <c:axId val="-2121347304"/>
+        <c:axId val="2110480776"/>
+        <c:axId val="2110483736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2147292792"/>
+        <c:axId val="2110480776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,12 +1511,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121347304"/>
+        <c:crossAx val="2110483736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2121347304"/>
+        <c:axId val="2110483736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,7 +1526,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2147292792"/>
+        <c:crossAx val="2110480776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1020,11 +1775,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144996664"/>
-        <c:axId val="-2142374792"/>
+        <c:axId val="2110510264"/>
+        <c:axId val="2110513224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144996664"/>
+        <c:axId val="2110510264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,12 +1789,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142374792"/>
+        <c:crossAx val="2110513224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142374792"/>
+        <c:axId val="2110513224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144996664"/>
+        <c:crossAx val="2110510264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1285,11 +2040,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2140794744"/>
-        <c:axId val="2140285608"/>
+        <c:axId val="2110539112"/>
+        <c:axId val="2110542072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2140794744"/>
+        <c:axId val="2110539112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,12 +2054,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140285608"/>
+        <c:crossAx val="2110542072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2140285608"/>
+        <c:axId val="2110542072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,7 +2069,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140794744"/>
+        <c:crossAx val="2110539112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1565,11 +2320,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144989496"/>
-        <c:axId val="-2144946040"/>
+        <c:axId val="2110568632"/>
+        <c:axId val="2110571592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144989496"/>
+        <c:axId val="2110568632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,12 +2334,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144946040"/>
+        <c:crossAx val="2110571592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144946040"/>
+        <c:axId val="2110571592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1594,7 +2349,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144989496"/>
+        <c:crossAx val="2110568632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1828,11 +2583,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2145028680"/>
-        <c:axId val="-2145123816"/>
+        <c:axId val="2110596968"/>
+        <c:axId val="2110599928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2145028680"/>
+        <c:axId val="2110596968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,12 +2597,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145123816"/>
+        <c:crossAx val="2110599928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2145123816"/>
+        <c:axId val="2110599928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,7 +2612,759 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145028680"/>
+        <c:crossAx val="2110596968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Cam6</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> bulge</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0592893700787401"/>
+          <c:y val="0.131481481481481"/>
+          <c:w val="0.894877296587926"/>
+          <c:h val="0.75117308253135"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$E$138:$E$157</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v> cam6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> cam6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> cam6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> cam6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> cam6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> cam6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> cam6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> cam6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> cam6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> cam6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> cam6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> cam6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> cam6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> cam6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> cam6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> cam6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> cam6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> cam6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> cam6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> cam6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$138:$L$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.2658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3565</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5284</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1091</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6079</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6561</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3802</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8808</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8423</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2135089352"/>
+        <c:axId val="2135092312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2135089352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2135092312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2135092312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2135089352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Cam6</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> disk</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$158:$D$177</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.434</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.568</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.704</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.842</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.982</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.268</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.413</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.709</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.859</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.471</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.259</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.419</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$158:$L$177</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2914</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6562</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6938</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6884</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1979</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5652</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4531</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7827</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5913</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3622</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0359</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1411</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1959</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2133543224"/>
+        <c:axId val="2133751960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2133543224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2133751960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2133751960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2133543224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cam7</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> bulge</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$178:$D$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.842</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.124</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.268</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.413</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.709</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.316</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.471</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.259</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.419</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$178:$L$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.4403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7047</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3578</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7357</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2966</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3187</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4462</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5187</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.7119</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9824</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0503</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6744</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0285</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2135982232"/>
+        <c:axId val="2127853960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2135982232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2127853960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2127853960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2135982232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2063,6 +3570,198 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2399,8 +4098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q259"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B122" workbookViewId="0">
-      <selection activeCell="U105" sqref="U105"/>
+    <sheetView showRuler="0" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="Y238" sqref="Y238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15004,36 +16703,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:21" ht="20">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15048,4 +16747,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/VELA01 bulge summary.xlsx
+++ b/VELA01 bulge summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="540" windowWidth="33380" windowHeight="17580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2980" yWindow="340" windowWidth="33180" windowHeight="17580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$Q$259</definedName>
+    <definedName name="bulge_150by150_VELA01" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="galfit_result_summary" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="galfit_result_summary_1" localSheetId="0">Sheet1!$B$2:$Q$259</definedName>
   </definedNames>
@@ -27,7 +28,29 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="galfit_result_summary.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="1" name="bulge_150by150_VELA01.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:aberdene:McGrathResearch:bulge_150by150_VELA01.txt" tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="galfit_result_summary.txt" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:imtibbet:newSim:VELA01:F160W:galfit_result_summary.txt" tab="0" comma="1">
       <textFields count="12">
         <textField/>
@@ -45,7 +68,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="galfit_result_summary.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="3" name="galfit_result_summary.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:imtibbet:newSim:VELA01:F160W:galfit_result_summary.txt" tab="0" comma="1">
       <textFields count="16">
         <textField/>
@@ -466,11 +489,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110411800"/>
-        <c:axId val="2110414760"/>
+        <c:axId val="-2110622136"/>
+        <c:axId val="-2110619176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110411800"/>
+        <c:axId val="-2110622136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -480,14 +503,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110414760"/>
+        <c:crossAx val="-2110619176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2110414760"/>
+        <c:axId val="-2110619176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -495,7 +519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110411800"/>
+        <c:crossAx val="-2110622136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -728,11 +752,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137028264"/>
-        <c:axId val="2137486248"/>
+        <c:axId val="-2110358984"/>
+        <c:axId val="-2110356024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2137028264"/>
+        <c:axId val="-2110358984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,12 +766,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137486248"/>
+        <c:crossAx val="-2110356024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2137486248"/>
+        <c:axId val="-2110356024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -757,7 +781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137028264"/>
+        <c:crossAx val="-2110358984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -974,11 +998,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2129733864"/>
-        <c:axId val="2129881736"/>
+        <c:axId val="-2110329704"/>
+        <c:axId val="-2110326744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2129733864"/>
+        <c:axId val="-2110329704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,12 +1012,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129881736"/>
+        <c:crossAx val="-2110326744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2129881736"/>
+        <c:axId val="-2110326744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1003,7 +1027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129733864"/>
+        <c:crossAx val="-2110329704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1220,11 +1244,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2138332872"/>
-        <c:axId val="2130515176"/>
+        <c:axId val="-2110300584"/>
+        <c:axId val="-2110297624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2138332872"/>
+        <c:axId val="-2110300584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1234,12 +1258,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130515176"/>
+        <c:crossAx val="-2110297624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2130515176"/>
+        <c:axId val="-2110297624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1273,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138332872"/>
+        <c:crossAx val="-2110300584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1497,11 +1521,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110480776"/>
-        <c:axId val="2110483736"/>
+        <c:axId val="-2110592568"/>
+        <c:axId val="-2110589608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110480776"/>
+        <c:axId val="-2110592568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1511,12 +1535,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110483736"/>
+        <c:crossAx val="-2110589608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2110483736"/>
+        <c:axId val="-2110589608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,7 +1550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110480776"/>
+        <c:crossAx val="-2110592568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1775,11 +1799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110510264"/>
-        <c:axId val="2110513224"/>
+        <c:axId val="-2110563144"/>
+        <c:axId val="-2110560184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110510264"/>
+        <c:axId val="-2110563144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1789,12 +1813,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110513224"/>
+        <c:crossAx val="-2110560184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2110513224"/>
+        <c:axId val="-2110560184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1804,7 +1828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110510264"/>
+        <c:crossAx val="-2110563144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2040,11 +2064,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110539112"/>
-        <c:axId val="2110542072"/>
+        <c:axId val="-2110534312"/>
+        <c:axId val="-2110531352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110539112"/>
+        <c:axId val="-2110534312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2054,14 +2078,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110542072"/>
+        <c:crossAx val="-2110531352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2110542072"/>
+        <c:axId val="-2110531352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2069,7 +2094,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110539112"/>
+        <c:crossAx val="-2110534312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2320,11 +2345,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110568632"/>
-        <c:axId val="2110571592"/>
+        <c:axId val="-2110504776"/>
+        <c:axId val="-2110501816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110568632"/>
+        <c:axId val="-2110504776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2334,12 +2359,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110571592"/>
+        <c:crossAx val="-2110501816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2110571592"/>
+        <c:axId val="-2110501816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2349,7 +2374,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110568632"/>
+        <c:crossAx val="-2110504776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2583,11 +2608,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110596968"/>
-        <c:axId val="2110599928"/>
+        <c:axId val="-2110476472"/>
+        <c:axId val="-2110473512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110596968"/>
+        <c:axId val="-2110476472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2597,12 +2622,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110599928"/>
+        <c:crossAx val="-2110473512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2110599928"/>
+        <c:axId val="-2110473512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2612,7 +2637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110596968"/>
+        <c:crossAx val="-2110476472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2838,11 +2863,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2135089352"/>
-        <c:axId val="2135092312"/>
+        <c:axId val="-2110447176"/>
+        <c:axId val="-2110444216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2135089352"/>
+        <c:axId val="-2110447176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2851,12 +2876,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135092312"/>
+        <c:crossAx val="-2110444216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2135092312"/>
+        <c:axId val="-2110444216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2866,7 +2891,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135089352"/>
+        <c:crossAx val="-2110447176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3083,11 +3108,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2133543224"/>
-        <c:axId val="2133751960"/>
+        <c:axId val="-2110417848"/>
+        <c:axId val="-2110414888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2133543224"/>
+        <c:axId val="-2110417848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3097,12 +3122,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133751960"/>
+        <c:crossAx val="-2110414888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2133751960"/>
+        <c:axId val="-2110414888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3112,7 +3137,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133543224"/>
+        <c:crossAx val="-2110417848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3335,11 +3360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2135982232"/>
-        <c:axId val="2127853960"/>
+        <c:axId val="-2110388536"/>
+        <c:axId val="-2110385576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2135982232"/>
+        <c:axId val="-2110388536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3349,12 +3374,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127853960"/>
+        <c:crossAx val="-2110385576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2127853960"/>
+        <c:axId val="-2110385576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3364,7 +3389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135982232"/>
+        <c:crossAx val="-2110388536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3771,7 +3796,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="galfit_result_summary_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="galfit_result_summary_1" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4098,27 +4123,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q259"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="Y238" sqref="Y238"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" customWidth="1"/>
+    <col min="8" max="9" width="9.1640625" customWidth="1"/>
     <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" customWidth="1"/>
     <col min="13" max="14" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
@@ -16685,10 +16709,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:Q259">
-    <sortCondition ref="E2:E259"/>
-    <sortCondition ref="G2:G259"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -16703,8 +16723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/VELA01 bulge summary.xlsx
+++ b/VELA01 bulge summary.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="340" windowWidth="33180" windowHeight="17580" tabRatio="500"/>
+    <workbookView xWindow="2980" yWindow="340" windowWidth="31720" windowHeight="23520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="31">
   <si>
     <t>VELA01</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Age vs Sers.Index(220-500)</t>
+  </si>
+  <si>
+    <t>Age vs. radius</t>
   </si>
 </sst>
 </file>
@@ -489,11 +492,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110622136"/>
-        <c:axId val="-2110619176"/>
+        <c:axId val="2144791048"/>
+        <c:axId val="-2074566296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110622136"/>
+        <c:axId val="2144791048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,12 +506,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110619176"/>
+        <c:crossAx val="-2074566296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2110619176"/>
+        <c:axId val="-2074566296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -519,7 +522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110622136"/>
+        <c:crossAx val="2144791048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -598,6 +601,16 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:prstDash val="lgDash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$199:$D$219</c:f>
@@ -752,11 +765,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110358984"/>
-        <c:axId val="-2110356024"/>
+        <c:axId val="-2147434984"/>
+        <c:axId val="-2055078760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110358984"/>
+        <c:axId val="-2147434984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -766,14 +779,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110356024"/>
+        <c:crossAx val="-2055078760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2110356024"/>
+        <c:axId val="-2055078760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -781,7 +795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110358984"/>
+        <c:crossAx val="-2147434984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -998,11 +1012,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110329704"/>
-        <c:axId val="-2110326744"/>
+        <c:axId val="-2141442792"/>
+        <c:axId val="-2077860072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110329704"/>
+        <c:axId val="-2141442792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,14 +1026,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110326744"/>
+        <c:crossAx val="-2077860072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2110326744"/>
+        <c:axId val="-2077860072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1027,7 +1042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110329704"/>
+        <c:crossAx val="-2141442792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1096,6 +1111,16 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln cap="flat">
+                <a:prstDash val="lgDash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$240:$D$259</c:f>
@@ -1244,11 +1269,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110300584"/>
-        <c:axId val="-2110297624"/>
+        <c:axId val="-2144078536"/>
+        <c:axId val="-2143919960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110300584"/>
+        <c:axId val="-2144078536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,14 +1283,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110297624"/>
+        <c:crossAx val="-2143919960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2110297624"/>
+        <c:axId val="-2143919960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1273,9 +1299,701 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110300584"/>
+        <c:crossAx val="-2144078536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Cam0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Disk</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.394672353455818"/>
+          <c:y val="0.0324074074074074"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:prstDash val="lgDash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$26:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.842</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.124</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.268</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.413</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.709</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.859</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.316</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.471</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.259</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.419</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$26:$N$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>22.7866</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.2163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.5049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.5662</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.682</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.562</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.1141</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.9173</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.8248</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.7387</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.5608</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.7043</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.7043</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.5628</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.2097</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.2893</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61.7345</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.5825</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.2323</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68.0427</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.325</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>51.8224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1760026536"/>
+        <c:axId val="1759618760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1760026536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Age (Gyr)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1759618760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1759618760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Effective Radius (pix)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1760026536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20.0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Cam0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Bulge</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.394672353455818"/>
+          <c:y val="0.0324074074074074"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:prstDash val="lgDash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.842</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.124</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.268</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.413</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.709</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.859</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.316</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.471</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.259</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.419</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>13.9669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.2206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.9137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.5532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.1339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.3786</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.2715</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.0262</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.2009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1727</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.5515</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.587</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.587</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.9549</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.0791</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.9085</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36.4805</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.7939</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26.0353</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.6316</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.9872</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.7513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2138823896"/>
+        <c:axId val="1774165064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2138823896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Age (Gyr)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1774165064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1774165064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Effective Radius (pix)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2138823896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1349,6 +2067,16 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:prstDash val="lgDash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$26:$D$49</c:f>
@@ -1521,11 +2249,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110592568"/>
-        <c:axId val="-2110589608"/>
+        <c:axId val="-2146497224"/>
+        <c:axId val="-2147349608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110592568"/>
+        <c:axId val="-2146497224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1535,14 +2263,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110589608"/>
+        <c:crossAx val="-2147349608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2110589608"/>
+        <c:axId val="-2147349608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1550,7 +2279,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110592568"/>
+        <c:crossAx val="-2146497224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1799,11 +2528,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110563144"/>
-        <c:axId val="-2110560184"/>
+        <c:axId val="2143495224"/>
+        <c:axId val="2045179624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110563144"/>
+        <c:axId val="2143495224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,14 +2542,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110560184"/>
+        <c:crossAx val="2045179624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2110560184"/>
+        <c:axId val="2045179624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1828,7 +2558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110563144"/>
+        <c:crossAx val="2143495224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1904,6 +2634,16 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:prstDash val="lgDash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$72:$D$93</c:f>
@@ -2064,11 +2804,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110534312"/>
-        <c:axId val="-2110531352"/>
+        <c:axId val="-2140304904"/>
+        <c:axId val="-2141104776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110534312"/>
+        <c:axId val="-2140304904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,12 +2818,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110531352"/>
+        <c:crossAx val="-2141104776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2110531352"/>
+        <c:axId val="-2141104776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -2094,7 +2834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110534312"/>
+        <c:crossAx val="-2140304904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2345,11 +3085,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110504776"/>
-        <c:axId val="-2110501816"/>
+        <c:axId val="-2062492392"/>
+        <c:axId val="2132204072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110504776"/>
+        <c:axId val="-2062492392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,14 +3099,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110501816"/>
+        <c:crossAx val="2132204072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2110501816"/>
+        <c:axId val="2132204072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2374,7 +3115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110504776"/>
+        <c:crossAx val="-2062492392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2448,6 +3189,16 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:prstDash val="lgDash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$116:$D$137</c:f>
@@ -2608,11 +3359,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110476472"/>
-        <c:axId val="-2110473512"/>
+        <c:axId val="-2055029944"/>
+        <c:axId val="-2140733576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110476472"/>
+        <c:axId val="-2055029944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2622,14 +3373,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110473512"/>
+        <c:crossAx val="-2140733576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2110473512"/>
+        <c:axId val="-2140733576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2637,7 +3389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110476472"/>
+        <c:crossAx val="-2055029944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2717,72 +3469,73 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$E$138:$E$157</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>Sheet1!$D$138:$D$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v> cam6</c:v>
+                  <c:v>1.796</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> cam6</c:v>
+                  <c:v>1.919</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> cam6</c:v>
+                  <c:v>2.044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> cam6</c:v>
+                  <c:v>2.171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> cam6</c:v>
+                  <c:v>2.434</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> cam6</c:v>
+                  <c:v>2.568</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v> cam6</c:v>
+                  <c:v>2.704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v> cam6</c:v>
+                  <c:v>2.842</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v> cam6</c:v>
+                  <c:v>2.982</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v> cam6</c:v>
+                  <c:v>3.124</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v> cam6</c:v>
+                  <c:v>3.268</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v> cam6</c:v>
+                  <c:v>3.413</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v> cam6</c:v>
+                  <c:v>3.709</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v> cam6</c:v>
+                  <c:v>3.859</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v> cam6</c:v>
+                  <c:v>4.01</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v> cam6</c:v>
+                  <c:v>4.471</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v> cam6</c:v>
+                  <c:v>5.259</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v> cam6</c:v>
+                  <c:v>5.419</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v> cam6</c:v>
+                  <c:v>5.58</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v> cam6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5.903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -2863,27 +3616,29 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110447176"/>
-        <c:axId val="-2110444216"/>
+        <c:axId val="-2139715400"/>
+        <c:axId val="-2061710552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110447176"/>
+        <c:axId val="-2139715400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110444216"/>
+        <c:crossAx val="-2061710552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2110444216"/>
+        <c:axId val="-2061710552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2891,7 +3646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110447176"/>
+        <c:crossAx val="-2139715400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2960,6 +3715,16 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:prstDash val="lgDash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$158:$D$177</c:f>
@@ -3108,11 +3873,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110417848"/>
-        <c:axId val="-2110414888"/>
+        <c:axId val="-2061724936"/>
+        <c:axId val="-2061526568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110417848"/>
+        <c:axId val="-2061724936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3122,14 +3887,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110414888"/>
+        <c:crossAx val="-2061526568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2110414888"/>
+        <c:axId val="-2061526568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3137,7 +3903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110417848"/>
+        <c:crossAx val="-2061724936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3360,11 +4126,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110388536"/>
-        <c:axId val="-2110385576"/>
+        <c:axId val="-2057077976"/>
+        <c:axId val="-2146611752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110388536"/>
+        <c:axId val="-2057077976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3374,14 +4140,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110385576"/>
+        <c:crossAx val="-2146611752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2110385576"/>
+        <c:axId val="-2146611752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3389,7 +4156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110388536"/>
+        <c:crossAx val="-2057077976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3792,6 +4559,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4123,8 +4954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q259"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16721,15 +17552,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="20">
+    <row r="1" spans="1:22" ht="20">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -16753,6 +17584,9 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/VELA01 bulge summary.xlsx
+++ b/VELA01 bulge summary.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="340" windowWidth="31720" windowHeight="23520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="39960" yWindow="760" windowWidth="34520" windowHeight="18540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -492,11 +492,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2144791048"/>
-        <c:axId val="-2074566296"/>
+        <c:axId val="-2119652472"/>
+        <c:axId val="-2119657752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2144791048"/>
+        <c:axId val="-2119652472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,12 +506,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074566296"/>
+        <c:crossAx val="-2119657752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2074566296"/>
+        <c:axId val="-2119657752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -522,7 +522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144791048"/>
+        <c:crossAx val="-2119652472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -765,11 +765,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2147434984"/>
-        <c:axId val="-2055078760"/>
+        <c:axId val="-2143181560"/>
+        <c:axId val="-2126969896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2147434984"/>
+        <c:axId val="-2143181560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,12 +779,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2055078760"/>
+        <c:crossAx val="-2126969896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2055078760"/>
+        <c:axId val="-2126969896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -795,7 +795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147434984"/>
+        <c:crossAx val="-2143181560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1012,11 +1012,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2141442792"/>
-        <c:axId val="-2077860072"/>
+        <c:axId val="-2124550776"/>
+        <c:axId val="-2126798712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2141442792"/>
+        <c:axId val="-2124550776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,12 +1026,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2077860072"/>
+        <c:crossAx val="-2126798712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2077860072"/>
+        <c:axId val="-2126798712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -1042,7 +1042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141442792"/>
+        <c:crossAx val="-2124550776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1269,11 +1269,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144078536"/>
-        <c:axId val="-2143919960"/>
+        <c:axId val="-2126742648"/>
+        <c:axId val="-2126709544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144078536"/>
+        <c:axId val="-2126742648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,12 +1283,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143919960"/>
+        <c:crossAx val="-2126709544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143919960"/>
+        <c:axId val="-2126709544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -1299,7 +1299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144078536"/>
+        <c:crossAx val="-2126742648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1557,11 +1557,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1760026536"/>
-        <c:axId val="1759618760"/>
+        <c:axId val="-2142521832"/>
+        <c:axId val="-2126618168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1760026536"/>
+        <c:axId val="-2142521832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1600,12 +1600,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1759618760"/>
+        <c:crossAx val="-2126618168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1759618760"/>
+        <c:axId val="-2126618168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,7 +1644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1760026536"/>
+        <c:crossAx val="-2142521832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20.0"/>
@@ -1903,11 +1903,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2138823896"/>
-        <c:axId val="1774165064"/>
+        <c:axId val="-2126756904"/>
+        <c:axId val="-2127559912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2138823896"/>
+        <c:axId val="-2126756904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1946,12 +1946,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1774165064"/>
+        <c:crossAx val="-2127559912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1774165064"/>
+        <c:axId val="-2127559912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1990,7 +1990,353 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2138823896"/>
+        <c:crossAx val="-2126756904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20.0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Cam2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Bulge</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.394672353455818"/>
+          <c:y val="0.0324074074074074"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:prstDash val="lgDash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.842</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.124</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.268</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.413</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.709</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.859</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.316</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.471</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.259</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.419</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>13.9669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.2206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.9137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.5532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.1339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.3786</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.2715</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.0262</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.2009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1727</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.5515</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.587</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.587</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.9549</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.0791</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.9085</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36.4805</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.7939</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26.0353</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.6316</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.9872</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.7513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2115039048"/>
+        <c:axId val="-2115200936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2115039048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Age (Gyr)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2115200936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2115200936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Effective Radius (pix)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2115039048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20.0"/>
@@ -2249,11 +2595,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2146497224"/>
-        <c:axId val="-2147349608"/>
+        <c:axId val="-2140133608"/>
+        <c:axId val="-2140006904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2146497224"/>
+        <c:axId val="-2140133608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2263,12 +2609,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147349608"/>
+        <c:crossAx val="-2140006904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2147349608"/>
+        <c:axId val="-2140006904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -2279,7 +2625,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146497224"/>
+        <c:crossAx val="-2140133608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2528,11 +2874,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2143495224"/>
-        <c:axId val="2045179624"/>
+        <c:axId val="-2145369256"/>
+        <c:axId val="-2139505752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2143495224"/>
+        <c:axId val="-2145369256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2542,12 +2888,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2045179624"/>
+        <c:crossAx val="-2139505752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2045179624"/>
+        <c:axId val="-2139505752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -2558,7 +2904,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143495224"/>
+        <c:crossAx val="-2145369256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2804,11 +3150,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140304904"/>
-        <c:axId val="-2141104776"/>
+        <c:axId val="-2125397992"/>
+        <c:axId val="-2140090424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2140304904"/>
+        <c:axId val="-2125397992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2818,12 +3164,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141104776"/>
+        <c:crossAx val="-2140090424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2141104776"/>
+        <c:axId val="-2140090424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -2834,7 +3180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140304904"/>
+        <c:crossAx val="-2125397992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3085,11 +3431,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2062492392"/>
-        <c:axId val="2132204072"/>
+        <c:axId val="-2139135368"/>
+        <c:axId val="-2127235768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2062492392"/>
+        <c:axId val="-2139135368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3099,12 +3445,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132204072"/>
+        <c:crossAx val="-2127235768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2132204072"/>
+        <c:axId val="-2127235768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -3115,7 +3461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2062492392"/>
+        <c:crossAx val="-2139135368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3359,11 +3705,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2055029944"/>
-        <c:axId val="-2140733576"/>
+        <c:axId val="-2125246200"/>
+        <c:axId val="-2127252488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2055029944"/>
+        <c:axId val="-2125246200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3373,12 +3719,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140733576"/>
+        <c:crossAx val="-2127252488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2140733576"/>
+        <c:axId val="-2127252488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -3389,7 +3735,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2055029944"/>
+        <c:crossAx val="-2125246200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3616,11 +3962,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2139715400"/>
-        <c:axId val="-2061710552"/>
+        <c:axId val="-2126787352"/>
+        <c:axId val="-2127154712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2139715400"/>
+        <c:axId val="-2126787352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3630,12 +3976,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2061710552"/>
+        <c:crossAx val="-2127154712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2061710552"/>
+        <c:axId val="-2127154712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -3646,7 +3992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139715400"/>
+        <c:crossAx val="-2126787352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3873,11 +4219,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2061724936"/>
-        <c:axId val="-2061526568"/>
+        <c:axId val="-2127269448"/>
+        <c:axId val="-2126938648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2061724936"/>
+        <c:axId val="-2127269448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3887,12 +4233,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2061526568"/>
+        <c:crossAx val="-2126938648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2061526568"/>
+        <c:axId val="-2126938648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -3903,7 +4249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2061724936"/>
+        <c:crossAx val="-2127269448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4126,11 +4472,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2057077976"/>
-        <c:axId val="-2146611752"/>
+        <c:axId val="-2124460360"/>
+        <c:axId val="-2124490408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2057077976"/>
+        <c:axId val="-2124460360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4140,12 +4486,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146611752"/>
+        <c:crossAx val="-2124490408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2146611752"/>
+        <c:axId val="-2124490408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -4156,7 +4502,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057077976"/>
+        <c:crossAx val="-2124460360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4623,6 +4969,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17555,7 +17933,7 @@
   <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
